--- a/assets/data/wildfires-survey-answers.xlsx
+++ b/assets/data/wildfires-survey-answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/francisco_guerrero_pnnl_gov/Documents/Documents/GitHub/Wildfires-and-Watersheds/wildfires_watersheds_vault/TOOLS/Assets/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/francisco_guerrero_pnnl_gov/Documents/Documents/GitHub/burn_iss-website/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{960E4F00-ADC6-495A-8F6D-C721FB9044D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5886636D-A3A1-4569-86B0-23C1C011F4C8}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{960E4F00-ADC6-495A-8F6D-C721FB9044D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B380DABF-CED2-4513-90DA-4825B49D0A10}"/>
   <bookViews>
-    <workbookView xWindow="-20124" yWindow="1176" windowWidth="17280" windowHeight="8964" xr2:uid="{34F6BFFA-5A47-4CEE-B73E-27EA97056E51}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34F6BFFA-5A47-4CEE-B73E-27EA97056E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="340">
   <si>
     <t>How is production, transport and deposition of pyrogenic organic matter changing snow and ice melt in watersheds? And what does this mean for water quality and quantity in those watersheds.</t>
   </si>
@@ -454,6 +454,734 @@
   </si>
   <si>
     <t>answers</t>
+  </si>
+  <si>
+    <t>research-a</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Water Quality, Watershed Management</t>
+  </si>
+  <si>
+    <t>Water Routing, Hillslope Hydrology, Surface Water – Groundwater Interactions, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Water Routing, Hillslope Hydrology, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Biogeochemical Modeling, Successional Dynamics, Ecological Resilience, Ecological Modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Biogeochemical Modeling, Sediment Transport</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Microbial Community Dynamics, Functional Diversity, Successional Dynamics, Ecological Resilience, Ecological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Water Quality, Surface Water – Groundwater Interactions</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Water Quality</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Sediment Transport</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Biogeochemical Modeling, Water Quality, Surface Water – Groundwater Interactions, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Surface Water – Groundwater Interactions</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Water Quality, Watershed Management</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Functional Diversity, Food Web / Trophic Dynamics, Water Quality</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling</t>
+  </si>
+  <si>
+    <t>Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Water Supply</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Water Quality</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Water Quality, Cryosphere impacts from deposition of pyrogenic organic matter.</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Water Quality, Water Supply</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Biogeochemical Modeling</t>
+  </si>
+  <si>
+    <t>Water Quality, Watershed Management, Societal Costs, Policy, Water Supply, Surface Water – Groundwater Interactions, drinking water treatability</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Water Quality, Watershed Management, Sediment Transport</t>
+  </si>
+  <si>
+    <t>Ecological Modeling, Watershed Management, Water Routing, Hillslope Hydrology, Water Supply, Surface Water – Groundwater Interactions, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Water Quality, Water Routing, Hillslope Hydrology, Sediment Transport</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Microbial Community Dynamics, Water Quality, Air Quality, Health, Trace and greenhouse gas emissions</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Biogeochemical Modeling, Water Quality, Water Supply, Contaminant Transport</t>
+  </si>
+  <si>
+    <t>Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Sediment Transport, Water Supply, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Water Quality, Water Routing, Hillslope Hydrology, Surface Water – Groundwater Interactions, Contaminant Transport</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Microbial Community Dynamics, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development</t>
+  </si>
+  <si>
+    <t>Successional Dynamics, Ecological Resilience, Indigenous Science, Environmental Justice, Air Quality, Health</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Method Development</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Food Web / Trophic Dynamics, Water Quality</t>
+  </si>
+  <si>
+    <t>Risk Communication / Health Communication</t>
+  </si>
+  <si>
+    <t>Microbial Community Dynamics, Successional Dynamics, Ecological Resilience, Watershed Management, Sediment Transport</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Biogeochemical Modeling, Successional Dynamics, Ecological Modeling, Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Sediment Transport, Water Supply, Surface Water – Groundwater Interactions, Contaminant Transport, Hydrological Modeling, Soil Erosion, Fire severity modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Method Development</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Water Quality</t>
+  </si>
+  <si>
+    <t>Water Quality, Watershed Management, Societal Costs, Policy, Water Supply, Hydrological Modeling, Disaster risk management and reduction</t>
+  </si>
+  <si>
+    <t>Water Routing, Hillslope Hydrology, Sediment Transport, ash, soil hydrology, preferential flow, soil water repellency (hydrophobicity), soil heating, spatial variability, soiltemperature-fire intensity relationships, integrated fire management</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Microbial Community Dynamics, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Functional Diversity, Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>Biogeochemical Modeling, Water Quality, Surface Water – Groundwater Interactions, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Ecological Resilience, Watershed Management, post-fire soil erosion risk</t>
+  </si>
+  <si>
+    <t>Biogeochemical Modeling, Successional Dynamics, Ecological Resilience, Ecological Modeling, Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Water Supply, Surface Water – Groundwater Interactions, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Microbial Community Dynamics, Successional Dynamics, Ecological Resilience, Air Quality, Health</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Biogeochemical Modeling, Functional Diversity, Successional Dynamics, Ecological Resilience, Ecological Modeling</t>
+  </si>
+  <si>
+    <t>Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>Microbial Community Dynamics, Ecology</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Microbial Community Dynamics, Pyrogenic Organic Matter Transport, Fluxes, Functional Diversity, Successional Dynamics, Ecological Resilience, Water Quality, Watershed Management</t>
+  </si>
+  <si>
+    <t>Ecological Modeling, Water Quality, Societal Costs, Policy</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Biogeochemical Modeling, Ecological Resilience, Ecological Modeling, Indigenous Science, Environmental Justice</t>
+  </si>
+  <si>
+    <t>Functional Diversity, Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>Fire Resistant Materials, Building Materials and Fire Safety, Resilient Design</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Microbial Community Dynamics, Pyrogenic Organic Matter Transport, Fluxes, Successional Dynamics, Ecological Resilience, Water Quality, Watershed Management, Forest and Fire Ecology</t>
+  </si>
+  <si>
+    <t>Biogeochemical Modeling, Successional Dynamics, Ecological Resilience, Ecological Modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Biogeochemical Modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Pyrogenic Organic Matter Transport, Fluxes, Biogeochemical Modeling</t>
+  </si>
+  <si>
+    <t>Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Sediment Transport, Water Supply, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Pyrogenic Organic Matter, Microbial Community Dynamics, Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>Functional Diversity, Successional Dynamics, Ecological Resilience, Food Web / Trophic Dynamics, Ecological Modeling, Indigenous Science, Environmental Justice, Societal Costs, Policy, Wildlife community responses to fire</t>
+  </si>
+  <si>
+    <t>Successional Dynamics, Ecological Resilience, Ecological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Water Quality, Watershed Management, Sediment Transport, Contaminant Transport</t>
+  </si>
+  <si>
+    <t>Ecological Modeling, Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Sediment Transport, Water Supply, Surface Water – Groundwater Interactions, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Pyrogenic Organic Matter, Soil Stability, Quality, Mineralogy, Pyrogenic Organic Matter Transport, Fluxes, Pyrogenic Organic Matter Method Development, Water Quality, Watershed Management, Water Routing, Hillslope Hydrology, Sediment Transport, Water Supply, Contaminant Transport, Hydrological Modeling</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling, Microbial Community Dynamics, Functional Diversity</t>
+  </si>
+  <si>
+    <t>Microbial Community Dynamics, Successional Dynamics, Ecological Resilience</t>
+  </si>
+  <si>
+    <t>pathways</t>
+  </si>
+  <si>
+    <t>conferences symposiums that cater to a broad group, large funding collaborations</t>
+  </si>
+  <si>
+    <t>Bringing together a transdisciplinary group of researchers and stakeholders</t>
+  </si>
+  <si>
+    <t>providing venues for discussion and integration of the science led by knowledge gaps</t>
+  </si>
+  <si>
+    <t>To integrate all scientific disciplines in the same research looking for synergies. Scientists across differetn disciplines have to work together to address key research questions</t>
+  </si>
+  <si>
+    <t>Pathways can include new methods for linking data collected at vastly different spatial/temporal scales, and new communication methods to describe the importance of datasets to colleagues outside of the discipline.</t>
+  </si>
+  <si>
+    <t>Increased awareness of the role of fire in ecosystems through a better connection with land managers.</t>
+  </si>
+  <si>
+    <t>New opportunities for communication and collaboration are needed. Researchers tend to be siloed by discipline (e.g. hydrology versus ecology) and study system (e.g. plants versus microbes). These groups need to come together to develop a common language and approach for addressing fire at the system level.</t>
+  </si>
+  <si>
+    <t>Direct collaboration from the outset at the planning/proposal stage
+Review of research approach by experts from other disciplines (advisory groups)</t>
+  </si>
+  <si>
+    <t>More research and education</t>
+  </si>
+  <si>
+    <t>Learning what has/been working so far in other places, working with colleagues/leaders in broad fields dedicated to improve or find solutions, identify clear objectives and goals, design feasible tasks, and have regular meetings to work in teams on the shared vision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finding common language because, many times, we do not assess the same parameters, work in very different temporal and spatial scales. </t>
+  </si>
+  <si>
+    <t>Utilizing existing monitoring programs (see comment below) is one of the most important steps toward integrating fire science across disciplines. This will open doors to new collaborations that encourage new scientific efforts while also streamlining unnecessary repeating efforts within the community.  
+A definition of fire science that is inclusive across disciplines that encourages contributions and integrations of the broader research community, policy makers (e.g., land management, fire restoration strategies), the general public and indigenous communities should be encouraged as we seek sustainable solutions to coexist with fire in a changing climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most important pathway to advancing and  better integrating fire science is to assemble a interdisciplinary team of scientists, engineers, watershed managers, foresters, planners and research partners with a clear mandate to work together on a common set of research goals that provide science upon which to develop policies and regulations. This can only be enabled by strong leadership, administrative support, appropriate levels of long term funding  and a strong willingness to work collaboratively! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my opinion, the discipline missing in this survey is wildland fire behavior science.  Wildland fire behavior determines fire severity and therefore fire affects.  Including this component will help integrate between ecosystem response, resiliency, and how ecosystem structure influences fire severity, which then leads to water quantity and quality response for wild land fire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad collaborations and synthetic work of various working groups. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using team science to facilitate collaboration between scientists of different disciplines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">·Communications: Frequent and deep discussions are necessary to share the research background and problems among scientists having different disciplines.   </t>
+  </si>
+  <si>
+    <t>Connecting fire ecology to biogeochemistry better: It is clear that fire affects SOM dynamics on very large time scales, but these investigations are very limited to short impacts after fire for The moment.
+Including fire and fire consequences in large scale models: PyC is virtually absent from regional and global scales models up to now, despite its potential major role</t>
+  </si>
+  <si>
+    <t>This approach here :) Bring the different communities together with all the known challenges. Identification what the different communities would need to know from other fields of research and adapting this to what can reasonably be made known</t>
+  </si>
+  <si>
+    <t>This is a difficult question!  Crosscommunication?  Integrated workshops?</t>
+  </si>
+  <si>
+    <t>crossdisciplinary workshops with space for open discussions</t>
+  </si>
+  <si>
+    <t>Addressing the role of intermittent and ephemeral streams and rivers in the postfire delivery of ash, charcoal, and fine particulate black carbon.
+Capturing dynamic changes from pulsed inputs on stream and river networks after catastrophic forest fires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As with all branches of science, meetings where people can brainstorm in a crossdisciplinary way. The Gordon Conferences are a great model for this. </t>
+  </si>
+  <si>
+    <t>more longterm obseravtions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing interdisciplinary linkages within scientific studies. See response below. </t>
+  </si>
+  <si>
+    <t>Foster and enhance collaborative crossdiscipline science opportunities like this to get to know active researchers for network building
+Generate new pathways for collaborative efforts (ex., research funding for a global/regional fire monitoring network...it can be hard to secure opportunistic funding when fires occur, so critical monitoring periods are often missed... or funding for biennial crossdisciplinary review panel paper similar to this)</t>
+  </si>
+  <si>
+    <t>I think the best way toward more integration across disciplines is to make data and analyses publicly accessible. This could allow for studies in the same area (maybe the same fire) utilize data to gain a more indepth look into how fire is impacting not only their area of interest, but also other factors that may be impacting their study area of interest.</t>
+  </si>
+  <si>
+    <t>Overarching projects that work at different interfaces (i.e. landwater) with a focus on fire science.</t>
+  </si>
+  <si>
+    <t>Identifying crosscutting research teams that can effectively address interdisciplinary questions</t>
+  </si>
+  <si>
+    <t>organized transdisciplinary discussions</t>
+  </si>
+  <si>
+    <t>A collaborative effort to integrate fire impacts on the carbon cycle within Dynamic Global Vegetation Models and Earth System Models tends to drive progress by (i) revealing the importance of 'missing' effects to modellers and (ii) allowing field/lab focussed researchers to understand the needs of modellers (typically the input variables or empirical relationships needed to inform the process modelling).</t>
+  </si>
+  <si>
+    <t>Building common terminology/language, metrics and analytical methods for characterizing fire and its effects across disciplines.
+ Building a shared databases on fire characteristics and impacts to be used worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossdiscipline communication (i.e. conferences, meetings, seminars, etc.) and collaboration where possible, possibly facilitated by coordinated funding strategies. For example, my research is currently funded by the DOE's Biological and Environmental Research Program, which also funds several other firerelated research programs. Annual DOE meetings have been a critical opportunity for us to connect with other research groups investigating fire impacts from a variety of perspectives/disciplines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Better communication and collaboration between ecologists and fire scientists.
+ More inclusiveness between all fire researchers and Indigenous knowledge in a meaningful and collaborative way.</t>
+  </si>
+  <si>
+    <t>Providing more money and larger grants. It is difficult to integrate across disciplines because more people means larger grants are needed, and even $M goes really fast with just a couple people given personnel costs. Hosting more interdisciplinary fire focused work shops. I learned a lot at at fire science workshop hosted at UC SB that had people from across disciplines are interested in wildfires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a good question…. and as an ecologist I rarely interact with hydrologists, geologists, and others working in fire science. Of course, fire science is necessarily integrative, which necessitates thinking about processes occurring in the terrestrial landscape (burn severity, for example). I think adequately preparing students would be a nice first step, especially as fire science programs may not be the most wholistic (https://catalog.extension.oregonstate.edu/sites/catalog/files/project/pdf/em97pdf). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) improved educational programs that stress interdisciplinary and provide foundational knowledge of physical, chemical and biological processes in watershed processes and their related ecosystem services.   </t>
+  </si>
+  <si>
+    <t>terrestrialaquatic interface
+Aquatic and terrestrial lines of investigation have historically proceeded in parallel. The terrestrialaquatic interface is a hotspot of biogeochemical activity and central in understanding terrestrial and aquatic wildfire impacts.
+Sullivan, S. Mažeika P., and David WP Manning. "Aquatic–terrestrial linkages as complex systems: insights and advances from network models." Freshwater Science 38.4 (09): 936945.
+Tank, Suzanne E., et al. "Beyond respiration: Controls on lateral carbon fluxes across the terrestrialaquatic interface." Limnology and Oceanography Letters 3.3 (08): 7688.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Development of multiple modeling approaches that integrate burn behavior, impacts on vegetation and soil structure, watershed hydrology, and watershed exports (Walker et al. 08. CrossScale Controls on Carbon Emissions from Boreal Forest Megafires. Global Change Biology. Doi: 0./gcb.487)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing and utilizing compatible methodologies across subdisciplines (i.e., Cotrufo et al 06 in Organic Geochemistry)
+ integration of both conducting and presenting research across fire subdisciplines </t>
+  </si>
+  <si>
+    <t>Numerical models of watersheds provide a potential framework within which understanding can be integrated and hypotheses can be formulated and tested. However, communication and coordination between modelers and experimentalists is often weak. Twoway modeldata integration (use of models to design experiments/observations, and use of experimental/observational data to refine and update models) is essential.
+Citation: Chen X., Lee R. M., Dwivedi D., Son K., Fang Y., Zhang X., Graham E., Stegen J., Fisher J. B., Moulton D. and Scheibe T. D. (0) Integrating field observations and processbased modeling to predict watershed water quality under environmental perturbations. Journal of Hydrology, Accepted, doi: https://doi.org/0.06/j.jhydrol.00.576</t>
+  </si>
+  <si>
+    <t>Building a respectful and more holistic consideration of merging traditional tribal knowledge into modern scientific practices when developing and applying research questions around impacts of wildfire. (Justification:  Chief, K., Daigle, J.J., Lynn, K., Whyte, K.P. 04. Indigenous experiences in the U.S. with climate change and environmental stewardship in the Anthropocene. In: Sample, V. Alaric; Bixler, R. Patrick, eds. Forest conservation and management in the Anthropocene: Conference proceedings. Proceedings. RMRSP7 Fort Collins, CO: USDA. Rocky Mountain Research Station)</t>
+  </si>
+  <si>
+    <t>Having conferences/workshops where a diverse set a wildfire researchers are invited and/or attend to learn what others are doing in different fields and to spark collaboration. Potentially target large conferences (ESA, AGU, etc) and have broad wildfire topic for the session. 
+If possible, establishing longterm research sites that are open to all disciplines for collaborations. Similar to LTER sites. This will allow for better understanding of longterm ecological effects of wildfire (McLauchlan et al. 00). 
+McLauchlan, K. K., Higuera, P. E., Miesel, J., Rogers, B. M., Schweitzer, J., Shuman, J. K., ... &amp; Watts, A. C. (00). Fire as a fundamental ecological process: Research advances and frontiers. Journal of Ecology, 08(5), 047069.</t>
+  </si>
+  <si>
+    <t>) Nomenclature used to describe pyrogenic carbon has evolved alongside the methods we use to characterize this critical carbon fraction and definitions vary among scientific disciplines (Hammes and Abiven, 03).  Since the use of specific scientific language promotes efficient communication within and among disciplines, the use of clear and consistent definitions to describe pyrogenic carbon must be emphasized.  Analytical windows for methods used to quantify pyrogenic carbon must be precisely articulated to avoid the confusion that results from propagation of poorly defined terminology.  From an analytical perspective, the incorporation of pyrogenic carbon standards is also advisable.
+) Efficient integration of fire science across scientific disciplines requires that the right samples, in sufficient amounts, are collected at the right time.  I am currently involved in a few studies where my collaborators are not experts on the organic geochemical analyses conducted in my lab, but they were able to collect field samples on my behalf because I was able to provide clean supplies and sufficient instruction for collecting water samples.  I do not have a peerreviewed citation to support this perspective, but I believe that devising an ideal “sampling scheme” complete with protocols, supply lists, and perhaps even preassembled sampling kits so we are readytogo when unpredictable wildfire and storm events occur.  One of the main challenges is making the sampling process easy for onsite researchers, so labintensive analyses can occur to support fieldbased measurements and observations.
+REFERENCE
+Hammes, K., Abiven, S. (03) Identification of black carbon in the Earth system. In “Fire Phenomena and the Earth System: An Interdisciplinary Guide to Fire Science” Ed. C.M. Belcher. John Wiley &amp; Sons, Inc. Hoboken, NJ pgs. 5776.</t>
+  </si>
+  <si>
+    <t>Common language across the subdisciplines (Zimmerman and Mitra, 09; Keeley, 008 Int. J. Wildland Fire).</t>
+  </si>
+  <si>
+    <t>) Integrating multiple analytical approaches to understand the history, reactivity, and transport of PyOM; () Developing model platforms that integrate soil biogeochemistry, hydrology, vegetation dynamics with fire regimes for more comprehensive understanding of ecosystem resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	fund collaboration networks of researchers from different areas, focusing specifically on fire sciences (eg COST Action FireLinks in Europe);
+	use these networks to organize targeted meetings on specific topics (e.g. fire risk prediction, water quality impacts) resulting in join papers, commentaries, policy briefs etc;
+	when these networks exist, researchers can take advantage of existing collaborations to apply for funding in multidisciplinary project proposals dealing with fire science.
+My comments come from our experience in Europe with COST Action Connecteur, where we managed to bring together scientists from different topics and managers to present our recommendations to study and manage the impacts of fire on water quality (Nunes et al, 08). The creation of this network greatly facilitated building multidisciplinary project proposals to address these issues, which we found were well received (and at the EU level, specifically requested) by funding agencies.
+Reference:
+Nunes, J.P., Doerr, S., Keesstra, S., Pulquério, M., et al. 08. Policy brief: impacts of fires on water quality. Results from the Connecteur/PLACARD workshop on Fire impacts on water quality, 4–6 February 08, Lisbon (https://www.placardnetwork.eu/impactsoffiresonwaterquality/).</t>
+  </si>
+  <si>
+    <t>Pyrogeography  pyrogeographic is an avowed holistic, synthetic and collaborative field
+I have written several papers on this topic see 
+Bowman, D.M., O'Brien, J.A. and Goldammer, J.G., 03. Pyrogeography and the global quest for sustainable fire management. Annual Review of Environment and Resources, 38.
+Bowman, D.M., Kolden, C.A., Abatzoglou, J.T., Johnston, F.H., van der Werf, G.R. and Flannigan, M., 00. Vegetation fires in the Anthropocene. Nature Reviews Earth &amp; Environment, (0), pp.50055.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A network of fire sites that could be thought of as "observatories", where researchers of different backgrounds could come and conduct analyses similar to the critical zone observatories (Anderson et al. 008)
+Anderson et al. (008) Critical Zone Observatories: Building a network to advance interdisciplinary study of Earth surface processes. Mineralogical Magazine. 7 (): 7–0</t>
+  </si>
+  <si>
+    <t>To further integrate fire science into fields focusing on social impact and risk communication, expanding social impact assessments beyond economic measures to examine social dynamics could provide greater insight into the range of impacts on communities, communications within, and how they may vary over time.
+Paveglio, T. B., BrenkertSmith, H., Hall, T., &amp; Smith, A. M. (05). Understanding social impact from wildfires: Advancing means for assessment. International Journal of Wildland Fire, 4(), 4.</t>
+  </si>
+  <si>
+    <t>For the sediment and ash delivery, downstream delivery of sediment and ash needs to e monitored and linked to burn severity distribution, soils and topography within the upland waterheds, across a range of climatic, geologic and topographic landscapes.  
+Citation: Neris, J., Santin, C., Lew, R., Robichaud, P. R., Elliot, W. J., Lewis, S. A., Sheridan, G., Rohlfs, A., Ollivier, Q., Oliveira, L., and Doerr, S. H. 0 Designing tools to predict and mitigate impacts on water quality following the Australian 09/00 wildfires: Insights from Sydney’s largest water supply catchment. Integrated Environmental Assessment and Management.  https://doi.org/0.00/ieam.4406.
+For the debris flow modeling: Detailed field surveys of debris flows and their upstream basins need to be carried out and linked to estimates of the rainfall or snowmelt events that caused them. Rainfall may need to be estimate by radar as rain gage data are unlikely to be available across the landscape where debris flows may occur. 
+Citation: Cannon S. H , Gartner J. E., Rupert M. G., Michael J. A., Rea A. H. and Parrett C. 00. Predicting the probability and volume of postwildfire debris flows in the intermountain western United States. GSA Bulletin January/February : 744.</t>
+  </si>
+  <si>
+    <t>Recognise that changes in the intensity and extent of wildfires affect many aspects of earth science. It is essential to study them in order to understand what happens in hydrology, atmosphere (air quality), CO emissions, soil quality and productivity, biodiversity, climate, etc. In other words, fires directly affect or are fed by the major current environmental problems. 
+A multidisciplinary and crosscutting approach is necessary. (Tedim et al., 0; Forest Policy and Economics,  0565).
+There is a need to combine studies using in situ measurements with predictive statistical tools (personal opinion).
+Highlight the importance of wildfires as indicators of the health of the planet with an historical perspective.</t>
+  </si>
+  <si>
+    <t>) Internationalization: wildfires are a worldwide phenomenon as much as a worldwide issue, and yet most of our environmental science is biased towards the Western world (Hughes at al, 00, Ecography)
+) System thinking: Wildfire disasters are a systemic risk coming from socioecological imbalances (McWethy et al. 09). We need to make sure future wildfirerelated research is shaped by this reality.</t>
+  </si>
+  <si>
+    <t>there is a disconnect between fire science and other disciplines like hydrology, soil science, biogeochemistry, so a disconnect between those studying and modeling fire behavior and those studying the impacts of that fire behavior. In Stoof et al 03 (Hot fire, cool soil) I explain this disconnect focusing on fireinduced soil heating. A pathway to better integrating fire science across disciplines is to create more opportunity for fire scientists and fire impact scientists to engage, to facilitate fire impact scientists (doing postfire studies) to see and experience and learn about fire in the field and to encourage postfire scientists to include fire metrics (rate of spread, fire intensity, residence time, but also fire danger classification like the FWI indices) in their research publications.</t>
+  </si>
+  <si>
+    <t>Continued exchange via conferences and workshops
+Holistic training of new fire scientists  somewhat akin to the recommendations made for microbial ecologists by Tom Schmidt (Schmidt, 006, International Microbiology)  ensuring expertise across subdomains</t>
+  </si>
+  <si>
+    <t>Integration between localscale empirical research, processbased modelling and biogeographic/biostatistical inventory approaches, since all approaches are needed to provide a large area of inference while maintaining scientific rigor and a hypothesisbased theory (Blankinship et al. 08; DOI: 0.007/s0533080478).
+Better understanding of abovebelow ground links (vegetation ecology  ecosystem ecology  microbiology  biogeochemistry), since ecosystem trajectories after fire are likely to depend strongly on plantmicroorganismsoil feedbacks (Clemmensen et al. 03; DOI: 0.6/science.393).</t>
+  </si>
+  <si>
+    <t>Increased collaboration between ecologists and management (Kelly and Brotons 07 Science)
+Integration of Big Data (Peters et al. 08 BioScience https://doi.org/0.093/biosci/biy069)</t>
+  </si>
+  <si>
+    <t>I think an important pathways to better integrating data in fire science is to address making fire data more Findable, Accessible, Interoperable, and Reusable (Wilkinson et al. 06). There's certainly a lot to unpack in the acronym, but essentially, how can we make sure that fire data are open and easy to share, and then once that fire data are shared, how easy is it for others to reuse that data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening up a conversation to synthesize knowledge across disciplines and to identify key knowledge gaps and mutual interests is an approach that is often fruitful.  Special sessions, conferences and proceedings and crossdisciplinary synthesis articles have all been used to move things along.
+Rhoades, C.C., J.P. Nunes, U. Silins, and S.H. Doerr. 09. The influence of wildfire on water quality and watershed processes: new insights and remaining challenges. International Journal of Wildland Fire 8:775.
+ </t>
+  </si>
+  <si>
+    <t>Collaboration of longterm field studies across various ecosystem types and fireregimes along with an openaccess and equitable database repository that houses data for fire science studies would help cover the emergent issues covered by McLauchlan et al's (00) review; this would also promote synthesis studies and collaboration for researchers across the globe.</t>
+  </si>
+  <si>
+    <t>transdisciplinary communication and increased funding. Fire science is an inherently interdisciplinary problem where no one expert will have the answers (McWethy et al. 09 Nature Sustainability). We need to improve our ability to collaborate in interdisciplinary teams and funding could incentives such interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborative activities can provide opportunities for interdisciplinary research and solve society’s challenges. Diversity on the team is also an important factor (Van Rijnsoever and Hessels, 0).
+Van Rijnsoever, Frank J., and Laurens K. Hessels. "Factors associated with disciplinary and interdisciplinary research collaboration." Research policy 40.3 (0): 46347
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        We need a long term monitored field site, like a “Critical Zone Observatory”, specific to wildfire that incorporates colocated measurements from fire spread and burn severity assessments, vegetation recovery, biogeochemistry, soil processes, hydrologic states and fluxes, and geomorphic shifts. The importance of such longterm data in hydrologic problems has been eloquently made (Tetzlaff et al., 07), but not specific to fire science.
+        We need a funded effort to build community integrated earth system models (e.g. Hurrell et al., 03) that link wildfire effects on vegetation, hydrology, geomorphology, and biogeochemistry at relevant spatial and temporal scales.
+References:
+Hurrell, J. W., Holland, M. M., Gent, P. R., Ghan, S., Kay, J. E., Kushner, P. J., ... &amp; Marshall, S. (03). The community earth system model: a framework for collaborative research. Bulletin of the American Meteorological Society, 94(9), 339360.
+Tetzlaff, D., Carey, S. K., McNamara, J. P., Laudon, H., &amp; Soulsby, C. (07). The essential value of longterm experimental data for hydrology and water management. Water Resources Research, 53(4), 598604.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        The most important pathway to integrated, transdisciplinary science is the development of committed research teams that will work together to frame the problems they will collaboratively address (Lang et al., 0; Yates et al., 05). This necessitates collaborators who are committed to investing the necessary time to the joint learning process financial investments and commitments by the team members to working 
+        Given the need for longterm time investments to develop transdisciplinary collaborative teams, an initial pathway forward may be to develop and suggest guidelines for methods of data collection and development of metadata to facilitate integration of often disparate data sets. While this cannot replace the need for truly collaborative transdisciplinary teams, it may enable future investments in research by illustrating to greater value from integration across disciplines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Postfire studies that integrate fieldbased monitoring, labcontrolled experiments, and modeling components for the same fireimpacted watersheds at comprehensive spatial and temporal scales are needed to address variability in wildfire behavior and unknowns surrounding the duration and magnitude of water quality response. There is a strong need for studies investigating the entire postfire watershed response including the landscape (e.g., ash, soils) together with all components of aquatic systems, streams, groundwater, and lakes. 
+        Further research that involves multiple fires, of varying severity, across a range of watersheds with different fuel types and hydrologic regimes is needed. Research traditionally focuses on individual fires and watersheds (Rhoades et al., 09), and broader and larger datasets are needed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think coupled models can be an approach to integrate fire science among various disciplines.
+ Coupled models provide a direct connection between the research in various scientific disciplines and fire and allows the bidirectional exchange of ideas to and from those disciplines.
+ RHESSysWMFire, a watershedscale coupled ecohydrologic and fire spread model, is an example of a watershedscale model that can bridge that gap between hydrology, ecology and fire ecology (Kennedy et al. 07), but more coupled models are needed with different emphases.
+Kennedy, M. C., D. Mckenzie, C. Tague, and A. L. Dugger. 07. Balancing uncertainty and complexity to incorporate fire spread in an ecohydrological model. International Journal of Wildland Fire 6:706–78.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Funding and research initiative that recognize the need for interdisciplinary studies and monitoring needs.
+	Active engagement of scientists across disciplines in applied problem in the fire sciences.
+	Open and harmonized data
+Although advancement of interdisciplinary funding and networks, integration of fundamental scientists into applied research problems, and the availability and framework to support open and harmonized data have all advanced, problems remain (e.g. lack of funding: Bromham et al., 06) and progress on each of these fronts is essential for achieving integrated firesystem understanding.
+Reference
+Bromham L, Dinnage R, Hua X. 06. Interdisciplinary research has consistently lower funding success. Nature, 534: 684687. DOI: 0.038/nature835.
+</t>
+  </si>
+  <si>
+    <t>regional differences, different factors are of varying importance at differen sits. Scaling challenging, lack of good observation data, especially for larger scales</t>
+  </si>
+  <si>
+    <t>Lack of commitment by government agencies to adequately inform the public that a fire that is suppressed today could actually have created a fuelbreak if it had been left to burn under acceptable weather conditions.</t>
+  </si>
+  <si>
+    <t>Multiple analytical methods, which sometimes do not provide a clear path for comparison.</t>
+  </si>
+  <si>
+    <t>There is a lack of integration across scientific disciplines and key linkages between those knowledge sets are often poorly integrated. This is partly due to the immense complexity of the problem of conducting science at a range of spatial and temporal scales but also a function of limited funding and the need to publish results over the short term. In doing so, the lack of longer term data precludes a detailed understanding of ecosystem dynamics at a range of spatial and temporal scales.</t>
+  </si>
+  <si>
+    <t>fires change the soil microbial community, but it remains relatively unknown how this changes function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragmentation of knowledge in specialized fields
+Bias towards data being collected in the western hemisphere and underrepresentation of the global south
+</t>
+  </si>
+  <si>
+    <t>Disciplinary stovepiping.</t>
+  </si>
+  <si>
+    <t>Academic tribalism, inability to fund holistic research (always an odd sock), few examples of successful transdisciplinary research as icons, limited training in transdisciplinary research. Need to muscle through despite the barriers.</t>
+  </si>
+  <si>
+    <t>Having these scientists work together, and developing integrated studies that consider both the terrestrial and aquatic response within a unified study design.</t>
+  </si>
+  <si>
+    <t>This question is outside my area of study.</t>
+  </si>
+  <si>
+    <t>Ecosystems proceses and functions are always connected each other and usually, a scientific discipline works on particular aspects without taking care about relationship among processes or functions.</t>
+  </si>
+  <si>
+    <t>The main roadblock toward both of the topics I have listed are data to support the development and validation of predictive models.</t>
+  </si>
+  <si>
+    <t>I would expect that challenges in study design, due to the opportunistic nature of field fire research on natural burns, would be important. (apologies, no citation)</t>
+  </si>
+  <si>
+    <t>Existence of baseline data, and the ability to pivot funding to sample/analyze new fires.</t>
+  </si>
+  <si>
+    <t>I think they key roadblock is a lack of systematic training on communication, collaboration, and interdisciplinary skills. Students are usually taught how to dive deep into a particular field or topic, but the skills training to bridge disciplines is spotty and often undervalued.</t>
+  </si>
+  <si>
+    <t>Silos of terrestrial and aquatic working groups. Also, the challenges of comparing dynamics of fire impacts without spatial or temporal comfounding factors.</t>
+  </si>
+  <si>
+    <t>Identifying realistic objectives for team members who are experts in a focused discipline. Bringing everyone in a mindset to think beyond our fields and work outside our comfort zones. Once people have a clear sense on what and how to contribute, I believe it will be easier for everyone to focus on a specific task(s)...as we are all busy and have limited time.</t>
+  </si>
+  <si>
+    <t>data availability and appropriate analytic tools that transcede different scales</t>
+  </si>
+  <si>
+    <t>Lack of long term monitoring (usually driven by short term funding programmes)</t>
+  </si>
+  <si>
+    <t>For microbial ecology, it's difficult to scale from the microbe to watershed processes.</t>
+  </si>
+  <si>
+    <t>Not enough studies have both before and after fire data; comparing patterns in burned vs. unburned areas may not be a good representation due to patchiness of fire and fire behaviour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inadequate frequency and range (i.e., type of analyses conducted) of data collection (i.e., relevant time scales vary across stakeholder groups) and  Recognizing how ecosytem and human/drinking water/landscape impacts of wildfire do and do not overlap</t>
+  </si>
+  <si>
+    <t>common language (as explained in Topic ) and modelling efforts that are able to integrate all the knowledge adquired in the different subdisciplines</t>
+  </si>
+  <si>
+    <t>) The lack of data openness: the (overly?) cautious attitude of too many researchers and governments towards data openness hinders scientific progress, despite the amazing technological possibilities we have now (we still need data to run models). See Stieglitz et al. 00, Plos One.
+) The lack of good scientific communication on this topic: we can publish all the science we want, we need to be better at talking about it (McNutt, 03)! The scientific community working on wildfires and aquatic environments is lacking a communication platform/forum where publications can be shared, where SciCom efforts can discussed, and strategies on how to communicate on this topic can be set up.</t>
+  </si>
+  <si>
+    <t>As I mentioned above, I think the integration of data from same fires/ same areas is vital. For example, in the 06 fire in the Great Smoky National Park, there are publications discussing pyrogenic carbon (Matosziuk et al. 00), fungal community dynamics (Brown et al 09), plant communities (Hubert 00 Papes). If these data were publicly available in a fire database, these papers could come to further conclusions on how fire is impacting the system.</t>
+  </si>
+  <si>
+    <t>The spatial and temporal scale of fire. Fire operates over broad scales and even though it is increasing, fire is often still a relatively rare event in any given location, making it difficult to study. We need to invest in improved modeling tools that can capture the complex and nonlinear responses of terrestial and aquatic ecosystems to fire if we want to study them over long timescales (Seidl 07 Ecosystems, Hansen et al. 00 Ecological Applications)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We lack measurements across nested temporal and spatial scales sufficient to understand crossscale interactions. For example in postfire infiltration, there are many efforts at the plot scale (i.e. &lt;a few square m) in the first year after fire but few efforts at larger scales or over years of recovery (Ebel, 09).
+ Funding of longterm data collection efforts is a major barrier to understanding of long term issues because most funding is directed towards immediate impacts of wildfire in the first 3 years (Moody et al., 03).
+References:
+Ebel, B. A. (09). Measurement method has a larger impact than spatial scale for plot‐scale field‐saturated hydraulic conductivity (Kfs) after wildfire and prescribed fire in forests. Earth Surface Processes and Landforms, 44(0), 945956.
+Moody, J. A., Shakesby, R. A., Robichaud, P. R., Cannon, S. H., &amp; Martin, D. A. (03). Current research issues related to postwildfire runoff and erosion processes. EarthScience Reviews, , 037.</t>
+  </si>
+  <si>
+    <t>methods. The biogeochemical community seems to argue back and forth about methods and the greater fire community isn't interested. The results seem lost in the endless conversation about methods and method development. Having metrics to talk about the same things would be helpful.</t>
+  </si>
+  <si>
+    <t>integration of chemical, successional, forestry, and hydrological understanding
+IMO, we need to shift our thinking towards a watershed or ecosystemscale approach, which can serve as a framework for integrating diverse links of research. This scale of thinking is integrated into some modelling and risk assessment approaches but generally does not infiltrate experimental research.
+Ice, George G., Daniel G. Neary, and Paul W. Adams. "Effects of wildfire on soils and watershed processes." Journal of Forestry 06 (004): 60.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datasets tracking longterm change in terrestrial and especially aquatic ecosystems. 
+ In Alaska, where the road system is limited, access to recently burned sites</t>
+  </si>
+  <si>
+    <t>・Grants: Grants to support longperiod collaboration with many scientists (including students and Postdocs) across scientific disciplines are really necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cost and access to shared methodologies
+need for more longterm research projects 
+ need to bring subdisciplines together to resolve differences in terminology and to share results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiscale process interactions: Molecularscale processes fundementally control reaction pathways and rates, but their impacts are manifested at ecosystem scales. Connecting these quantitatively and in a generalized, transferable manner is extremely difficult.
+ High variability in fire impacts on watersheds presents challenges to consistent model representation (Bladon et al., 04). There is need for spatially and temporally distributed measurements and for explicit representations of disturbances in processbased models.
+Citation: Bladon, K. D.; Emelko, M. B.; Silins, U.; Stone, M. Wildfire and the Future of Water Supply. Environmental Science and Technology 04, 48, 8936–8943. DOI: https://dx.doi.org/0.0/es50030g.</t>
+  </si>
+  <si>
+    <t>Lack of funds to do research, high competition for limited funds, the pace and size of wildfires  it is very hard to keep up when every week in California there is another burn. In 00, nearly 4 million acres burned in California alone. Who can keep up?</t>
+  </si>
+  <si>
+    <t>Longterm monitoring or fire impacted areas rarely extend beyond a few years. This may be in part due to accessibility or funding. Collaboration with open data agencies, such as NEON, or longterm monitoring programs (LTER) may be a best path forward to over come this challenge. 
+Accurate characterization of pyrogenic material remains a challenge but is critical to gain insights into the source and reactivity of material in postfire landscapes. Accurate characterization will allow better predictability of postfire impacts in ESMs and implications for downstream aquatic/coastal communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Difficult to simulate or replicate wildfire conditions across varying burn severities under experimental or laboratory settings where most chemical analyses must take place. (Santín, C., Doerr, S. H., Merino, A., Bucheli, T. D., Bryant, R., Ascough, P., ... &amp; Masiello, C. A. (07). Carbon sequestration potential and physicochemical properties differ between wildfire charcoals and slowpyrolysis biochars. Scientific Reports, 7,  https://www.nature.com/articles/s4598070455)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems there is a lack the necessary longterm study systems to clearly analyze these issues. For example, Bear Brook Watershed in Maine has been useful in analyzing the impacts of acid and nitrogen deposition on whole watersheds (Simon et al. 00; Environmental Monitoring and Assessment); Coweeta and Hubbard Brook have also been similarly useful. No LTER or similar longterm funded study system adequately addresses the issue like Bear Brook has been used to study acid and nitrogen. 
+Further, to what extent would a western U.S. study system (or any other study system) adequately capture the variation in biogeochemical responses? In the study system I am most familiar with, the Idaho batholith region, highly erodible granites are a dominant feature affecting wildfire impacts; however, the return interval of highly destructive events has a long return interval (Pierce et al. 00; Quaternary Science Reviews). 
+</t>
+  </si>
+  <si>
+    <t>need more modelers to help with study design and extrapolate point data; to ensure data collection is being done in a modelfriendly way
+cost (money and time spent) on long term projects; would be good to get some sort of long term monitoring project established (possibly linked with LTER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The random character of wildfires generally precludes the design of tightly controlled watershed studies. Thus, the lack of prefire data creates substantial challenges for disentangling the effects from wildfires from the local, background variability in biogeochemical cycling. 
+ The effects of wildfires on the mechanisms controlling hydrology and biochemistry in the river corridor are complex and will require substantial longterm funding to enable collection of sufficient data to develop models from reaction to basinscale. However, even then, a substantial roadblock will be the transferability of the developed knowledge to other regions and within regions given nonstationary climate.</t>
+  </si>
+  <si>
+    <t>) Collecting simultaneous instream (suspended in river channel) and depositional data (alluvial fans, coastal basins, lakes) will allow us to link contemporaneous wildfire activity and hydrologic events within the region to patterns observed within the sedimentary record. Calibration studies are essential for contextualizing modern wildfire activity within historic and geologic fire regimes (Hawthorne et al., 08). Success in achieving this goal requires improved communication and collaboration across scientific disciplines (see answers to previous topic).
+) Given the unpredictable nature of wildfire, its biogeochemical effects in terrestrial and marine environments are extremely difficult and logistically challenging to capture in real time. Sensor data can be used to safely acquire biogeochemical data during and immediately after fire, but proper calibration of these sensors determines their utility in this kind of work. Funding and personnel support for capturing wildfire events is needed a priori – Even applying for an NSF RAPID proposal can be too slow for getting a modest amount of support needed to simply get to field sites and grab samples in a timely manner. Again, I do not have a peerreviewed citation to support this perspective – Mainly from personal experience.
+REFERENCE
+Hawthorne, D., et al. (08) Global Modern Charcoal Dataset (GMCD): A tool for exploring proxyfire linkages and spatial patterns of biomass burning. Quaternary International 488, 37.</t>
+  </si>
+  <si>
+    <t>Long term sites/monitoring infrastructure. Ability to know a system pre and post fire and be able to study it for decades (e.g., Luo et al., 0 0./j.365486.00.065.x).</t>
+  </si>
+  <si>
+    <t>To address these research gaps, high resolution in stream sensors capable of detecting both concentration and compositional shifts in postfire water quality (e.g., nitrate, CDOM and FDOM sensors; Vaughan et al., 07) should be deployed in burned watersheds and coupled with realtime hydrologic measurements and in situ soil sensors. In situ sensors can provide important near realtime information for water supply management decisions, while also producing expansive short and longterm datasets that can help advance the understanding of the magnitude, timing, and duration of water quality responses.</t>
+  </si>
+  <si>
+    <t>) The inherently high spatial heterogeneity of terrestrial and aquatic environments; ) Difficulties in tracking the origin and trajectory of PyOM across terrestrialaquatic boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One of the biggest challenges with coupled models that incorporate fire is the limited data needed to support calibration of longterm fire behavior.
+ There is frequently limited data on natural fire return intervals, fire size, etc. to help guide model evaluation.
+ Further, modern fire regimes are heavily influenced by management in the form of fire suppression. Thus, incorporating fire into the longterm models can necessitate modeling management decision making.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lack of multiparameter, high resolution monitoring data, particularly over long time scales.
+ Insufficient communication and data sharing between researchers operating within given disciplines or scales.
+ Lack of connectivity between modeling efforts between disciplines and scales.
+Lack of data on the wildfire system has been ameliorated to some extent by the proliferation of remote sensing products (e.g. Allison et al., 06 for a review on one particular corner of remote sensing applications to fire science). However, highresolution data sets, particularly those including the contemporaneous monitoring of multiple parameters requires to further interdisciplinary understanding, and those collected over long time periods, remain relatively scarce (Thompson and Calkin, 0). Modeling efforts also would benefit from increasing integration across disciplines, as we have seen in ecohydrologic modeling over the past decades (Brewer et al., 08).
+References
+Allison RS, Johnston JM, Craig G, Jennings S. 06. Airborne Optical and Thermal Remote Sensing for Wildfire Detection and Monitoring. Sensors, 6: 30.
+Brewer SK, Worthington TA, Mollenhauer R, Stewart DR, McManamay RA, Guertault L, Moore D. 08. Synthesizing models useful for ecohydrology and ecohydraulic approaches: An emphasis on integrating models to address complex research questions. Ecohydrology, : e966. DOI: https://doi.org/0.00/eco.966.
+Thompson MP, Calkin DE. 0 Uncertainty and risk in wildland fire management: A review. Journal of Environmental Management, 9: 895909. DOI: https://doi.org/0.06/j.jenvman.003.05.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Different fire science topics are considered as subset of other disciplines more than as part of fire science, e.g. fire weather risk as part of climatology while postfire hydrology as part of the hydrological sciences;
+ there are limited opportunities for scientists working in fire to interact and talk specifically about this topic (although this is improving in recent years);
+ even when interaction opportunities occur, scientists tend to keep to subgroups of their own disciplines, and crossing interdisciplinary boundaries remain (in my experience) rare.
+These comments stem directly from my reply to Topic , and our experience in trying to address these issues with the creation of COST Action FireLinks in Europe (https://firelinks.eu/) and the roadblocks we encountered. Even inside a Fire Science network action with a specific aim (and funding) to promote the interaction between different aspects of fire science, Working Groups are divided by other scientific topics (e.g. WG: climate sciences, WG: plant biology, etc) and scientists tend to interact little outside of their chosen WGs, even when actively prompted to.
+Reference:
+COST Action CA835 FireLinks: Fire in the Earth System: Science &amp; Society (https://firelinks.eu/)</t>
+  </si>
+  <si>
+    <t>Sustaining support for longterm studies of the impacts of catastrophic wildfire on river networks.
+Obtaining good prefire data for use in evaluating wildfire impacts on waterways draining catchments where catastrophic wildfire is increasingly likely.</t>
+  </si>
+  <si>
+    <t>lack of more longterm obseravtions ;))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Repeated, replicated wildfires. This is easier said than done, but more studies need to incorporate the effects from multiple fires, not just multiple sites within the same fire.
+ Establishing a network of fires could accomplish this and may lend itself to longterm ecological research similar to the critical zone observatories (Anderson et al. 008)
+Anderson et al. (008) Critical Zone Observatories: Building a network to advance interdisciplinary study of Earth surface processes. Mineralogical Magazine. 7 : 7–0</t>
+  </si>
+  <si>
+    <t>The diversity of methodologies applied (not always comparable) (Hammes et al., 007, global biogeochemical cycles; De la Rosa et al., AJSSS, 008)
+Lack of permeability between scientific fields</t>
+  </si>
+  <si>
+    <t>Funding (especially for longterm monitoring)
+Unpredictable nature of wildfire, so  availability of prefire data is very locationspecific  accessibility/feasibility concerns for monitoring, and (3) study locations can be biased
+How do we overcome study site/data limitations and integrate what does exist towards a more composite picture? What are we missing currently in terms of site diversity?</t>
+  </si>
+  <si>
+    <t>The lack of attention for fire itself in postfire studies. 
+The fact that many postfire studies are focusing on burned areas alone (like studying the amount of postfire erosion without regarding prefire values) instead of comparing burned and unburned. More work on mechanistic understanding of changes observed can help shed light on integrative impacts. 
+Little collaboration between researchers of various disciplines is also a roadblock. It is a lot of effort to organize controlled/experimental fires  facilitating multiple teams to work on the same fires can greatly help interdisciplinary learning and understanding. This would need an exchange of experts facility, or someone/an entity linking researchers to eachother or to fire managers conducting planned burns. Maybe the Nature Conservancy can play a role in this with the TREX camps they organize  those camps focus on burning but if they would 'adopt' researchers that would be a fantastic way of connecting researchers of various disciplines to study integrated fire effects in a holistic way</t>
+  </si>
+  <si>
+    <t>The lack of integrated studies and the difficulty (economic and logistical) of maintaining longterm studies.</t>
+  </si>
+  <si>
+    <t>From the hydrological and biogeochemical science perspective the two biggest road blocks are: 
+) In my opinion and what I can tell from literature and proposal calls, wildland fire is too often viewed as a hydrologic and biogeochemical disturbance. But the vast majority of western ecosystems are 'firedependent'. This means that fire is not a disturbance, but actually a creative force on the ecosystem and therefore the watershed response to wild land fire. Even the phrase 'wildfire' is probably a missclassification here. I think what should be studied is 'wild land fire' i.e fire taking place on the wild lands, which encompasses both wildfire (uncontrolled high severity fire) and controlled or managed prescribed fire, generally low severity. 
+) The inclusion of indigenous burn practices. Like most wildland fires indigenous burn practices have been severely suppressed. However, these practices served multiple purposes, and often for specific management objectives. How this is included as we grapple with role of wild land fire in the west will likely in large part determine at large societal understanding of the role and acceptance of fire, including affects to hydrology and biogeochemistry.</t>
+  </si>
+  <si>
+    <t>Insufficient communication between scientists from different disciplines (Blankinship et al. 08; DOI: 0.007/s0533080478).
+Too much focus on inductionistic intepretation of data and statistical inference on the expense of theory and hypothesis based research (Prosser 00; DOI: 0.098/rstb.09.040).</t>
+  </si>
+  <si>
+    <t>) Lack of fire science funding due to increased allocation of resources to fire suppression, and 
+) Insufficient science communication skills 
+(JFSP 09, "0 year retrospective for the Joint Fire Science Program", https://www.firescience.gov/Publications/JFSP0yrsRetrospectiveFinal.pdf)</t>
+  </si>
+  <si>
+    <t>I guess big field studies covering a large spatial gradient combined with a more mechanistic labbased approach would yield important results.</t>
+  </si>
+  <si>
+    <t>Lack of specific wildfire funding at appropriate $ levels  DOE which in theory has a focus on watershed biogeochemistry has not invested much in this area.</t>
+  </si>
+  <si>
+    <t>I'm not sure if this already exists but some systematic review/analysis of research gaps (I did a fieldwide systematic review on invasive species impacts CrystalOrnelas &amp; Lockwood, 00, biological invasions) that might provide a really broad overview of gaps that prevent the holistic understanding of impacts. In other words, we could look at the impacts that get studied most or least often, and whether those impacts are studied unevenly across different spatiotemporal scales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of site specific, prefire data and the extremely high levels of variability in vegetation/fuel type and conditions, soils, catchment factors and wildfire severity are all common challenges to evaluating ecosystem responses to wildfire. The Fire and Fire Surrogate study was an earlier attempt use of standard sampling and study designs across wide ranges of fire and vegetation conditions to advance understanding of fire management (McIver et al. 009). 
+In addition to ecological complexities, wildfires and wildfire research occurs across a range of agency land (federal, state, private) with various access priorities, management priorities and research needs. Designing and completing successful research on managed landscapes is a challenging and nontrivial consideration. 
+McIver, James; Stephens, Scott L.; Youngblood, Andrew. 009. The national Fire and Fire Surrogate study: ecological consequences of fuel reduction methods in seasonally dry forests. Ecological Society of America. 9:8384.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well equipped watersheds to follow fluxes: Several watershed networks (i.e. OZCAR network) observe daily fluxes on watersheds that are not affected by extreme events, one would need exactly the same on places strongly affected by fire.
+ Cross scales series of experimentations identifying the processes and testing them on site. We need common sandbox where processes can be tested checked on watershed with comparable characteristics</t>
+  </si>
+  <si>
+    <t>Capacity to quantify fire temperature or combustion completeness using Earth Observations is currently too limited. Fire emissions and black C production could in theory be modelled via empirical relationships with fire temperature, however a lack of reliable and global observations of fire temperature currently prevents such a globalscale analysis of this nature.</t>
+  </si>
+  <si>
+    <t>From my field of expertise (modelling fire impacts on water quality):
+ Lack of a common fire severity metric across landscapes.
+ Lack of databases on ash production and composition across ecosystems.
+ Limited understanding of transport processes of ash and associated chemical compounds after wildfires</t>
+  </si>
+  <si>
+    <t>Unsure... data size/complexity and longterm funding availability seem like critical aspects of this goal, though I'm not sure these constitute a "roadblock".</t>
+  </si>
+  <si>
+    <t>While covering emergent themes for fire ecology mentioned in McLaughlan et al. (00) such as characterizing feedbacks and nonlinearities, utilizing 'big data' and artificial intelligence, and understanding ecological consequences of fire through time, these questions should be asked in a more global context (tropical fires). Thus, there must be an incentive, mutual understanding, and close collaboration with researchers from the Global South.</t>
+  </si>
+  <si>
+    <t>) disciplinary blinders  complex environmental problems require interdisciplinary research teams be assembled to address a range of important and interrelated processes that no one discipline is capable of fully understanding. Results from these broader approaches are more meaningful.
+) the need for funding agencies to support longer term research that can be used to better understand processes and impacts of wildfire over a range of basin scales
+3) train graduate students to be more holistic in their understanding and importance of other contributions from other disciplines. 
+4) POLITICS!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We don’t have enough interdisciplinary research. A comprehensive understanding of fire ecology cannot be done by just terrestrial ecologists or aquatic ecologists. We need to strengthen the research network (Richter et al. 08).
+Richter, Daniel D., et al. "Ideas and perspectives: Strengthening the biogeosciences in environmental research networks." Biogeosciences 5.5 (08): 485483
+</t>
+  </si>
+  <si>
+    <t>roadblocks</t>
   </si>
 </sst>
 </file>
@@ -489,16 +1217,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,11 +1549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ADB3AF-AA8E-4CD3-AC4D-AF23BE0B2DDB}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,751 +1564,2962 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
